--- a/AutoLoader/Contents/Support/DesignData/FanPara.xlsx
+++ b/AutoLoader/Contents/Support/DesignData/FanPara.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>设备编号</t>
   </si>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>风机风量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>余压</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -154,10 +150,6 @@
   <si>
     <t>宽（直径）</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -235,6 +227,18 @@
       <t>·h</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静压</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -394,7 +398,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +445,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -450,13 +466,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,84 +752,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z259"/>
+  <dimension ref="A1:AA259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="14" customWidth="1"/>
-    <col min="3" max="5" width="9" style="14"/>
-    <col min="6" max="6" width="9.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="14"/>
-    <col min="10" max="16" width="9" style="13"/>
-    <col min="17" max="17" width="13.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="13" customWidth="1"/>
-    <col min="19" max="25" width="9" style="13"/>
-    <col min="26" max="26" width="24.875" style="13" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="13"/>
+    <col min="3" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="9.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="14"/>
+    <col min="11" max="17" width="9" style="13"/>
+    <col min="18" max="18" width="13.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" style="13" customWidth="1"/>
+    <col min="20" max="26" width="9" style="13"/>
+    <col min="27" max="27" width="24.875" style="13" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="19" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -829,115 +840,121 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="18"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="18"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="19"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="X3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="19"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="18"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -960,14 +977,13 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -994,8 +1010,9 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -1022,8 +1039,9 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -1050,8 +1068,9 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1061,7 +1080,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1078,8 +1097,9 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1089,7 +1109,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -1106,8 +1126,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1117,7 +1138,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -1134,8 +1155,9 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1145,7 +1167,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -1162,8 +1184,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1173,7 +1196,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -1190,8 +1213,9 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1201,7 +1225,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -1218,8 +1242,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1229,7 +1254,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1246,8 +1271,9 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1257,7 +1283,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1274,8 +1300,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1285,7 +1312,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1302,8 +1329,9 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1313,7 +1341,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1330,8 +1358,9 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1341,7 +1370,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1358,8 +1387,9 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1369,7 +1399,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -1386,8 +1416,9 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1397,7 +1428,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -1414,8 +1445,9 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1425,7 +1457,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -1442,8 +1474,9 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="10"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1453,7 +1486,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1470,8 +1503,9 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="10"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1481,7 +1515,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -1498,8 +1532,9 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="10"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1509,7 +1544,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -1526,8 +1561,9 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1537,7 +1573,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1554,8 +1590,9 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1565,7 +1602,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1582,8 +1619,9 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1593,7 +1631,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -1610,8 +1648,9 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1621,7 +1660,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -1638,8 +1677,9 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="10"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1649,7 +1689,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -1666,8 +1706,9 @@
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="10"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1677,7 +1718,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -1694,8 +1735,9 @@
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="10"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1705,7 +1747,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -1722,8 +1764,9 @@
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="10"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1733,7 +1776,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -1750,8 +1793,9 @@
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="10"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1761,7 +1805,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -1778,8 +1822,9 @@
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="10"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1789,7 +1834,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -1806,8 +1851,9 @@
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="10"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1817,7 +1863,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -1834,8 +1880,9 @@
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1845,7 +1892,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -1862,8 +1909,9 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1873,7 +1921,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -1890,8 +1938,9 @@
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="10"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1901,7 +1950,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
@@ -1918,8 +1967,9 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="12"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1929,7 +1979,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
@@ -1946,8 +1996,9 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="12"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1957,7 +2008,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
@@ -1974,8 +2025,9 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="12"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1985,7 +2037,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -2002,8 +2054,9 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="12"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2013,7 +2066,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -2030,8 +2083,9 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="12"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2041,7 +2095,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
@@ -2058,8 +2112,9 @@
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="12"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2069,7 +2124,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -2086,8 +2141,9 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="12"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2097,7 +2153,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -2114,8 +2170,9 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="12"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2125,7 +2182,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
@@ -2142,8 +2199,9 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="12"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2153,7 +2211,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
@@ -2170,8 +2228,9 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="12"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2181,7 +2240,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -2198,8 +2257,9 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="12"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2209,7 +2269,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
@@ -2226,8 +2286,9 @@
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="12"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2237,7 +2298,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
@@ -2254,8 +2315,9 @@
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="12"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2265,7 +2327,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
@@ -2282,8 +2344,9 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="12"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2293,7 +2356,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="12"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
@@ -2310,8 +2373,9 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="12"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2321,7 +2385,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="12"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -2338,8 +2402,9 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="12"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2349,7 +2414,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
@@ -2366,8 +2431,9 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="12"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2377,7 +2443,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -2394,8 +2460,9 @@
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="12"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2405,7 +2472,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="12"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
@@ -2422,8 +2489,9 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="12"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2433,7 +2501,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
@@ -2450,8 +2518,9 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="12"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2461,7 +2530,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
@@ -2478,8 +2547,9 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="12"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -2489,7 +2559,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
@@ -2506,8 +2576,9 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="12"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2517,7 +2588,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="12"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
@@ -2534,8 +2605,9 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="12"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2545,7 +2617,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="12"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
@@ -2562,8 +2634,9 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="12"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2573,7 +2646,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
@@ -2590,8 +2663,9 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="12"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2601,7 +2675,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="12"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
@@ -2618,8 +2692,9 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="12"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2629,7 +2704,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="12"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
@@ -2646,8 +2721,9 @@
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="12"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2657,7 +2733,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="12"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
@@ -2674,8 +2750,9 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="12"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2685,7 +2762,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="12"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
@@ -2702,8 +2779,9 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="12"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -2713,7 +2791,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="12"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
@@ -2730,8 +2808,9 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="12"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -2741,7 +2820,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
@@ -2758,8 +2837,9 @@
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
       <c r="Z68" s="12"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="12"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -2769,7 +2849,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="12"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
@@ -2786,8 +2866,9 @@
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="12"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -2797,7 +2878,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
@@ -2814,8 +2895,9 @@
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="12"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -2825,7 +2907,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="12"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
@@ -2842,8 +2924,9 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="12"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -2853,7 +2936,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="12"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
@@ -2870,8 +2953,9 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="12"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -2881,7 +2965,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="12"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
@@ -2898,8 +2982,9 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="12"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -2909,7 +2994,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="12"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
@@ -2926,8 +3011,9 @@
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
       <c r="Z74" s="12"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="12"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -2937,7 +3023,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="12"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
@@ -2954,8 +3040,9 @@
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="12"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -2965,7 +3052,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="12"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
@@ -2982,8 +3069,9 @@
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
       <c r="Z76" s="12"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="12"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -2993,7 +3081,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
@@ -3010,8 +3098,9 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="12"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3021,7 +3110,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="12"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
@@ -3038,8 +3127,9 @@
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA78" s="12"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3049,7 +3139,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="12"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
@@ -3066,8 +3156,9 @@
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="12"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3077,7 +3168,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="12"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -3094,8 +3185,9 @@
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="12"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3105,7 +3197,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="12"/>
+      <c r="J81" s="11"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
@@ -3122,8 +3214,9 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="12"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3133,7 +3226,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="12"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -3150,8 +3243,9 @@
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="12"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3161,7 +3255,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="12"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
@@ -3178,8 +3272,9 @@
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="12"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3189,7 +3284,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="12"/>
+      <c r="J84" s="11"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
@@ -3206,8 +3301,9 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="12"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -3217,7 +3313,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="12"/>
+      <c r="J85" s="11"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
@@ -3234,8 +3330,9 @@
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="12"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -3245,7 +3342,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
-      <c r="J86" s="12"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
@@ -3262,8 +3359,9 @@
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="12"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -3273,7 +3371,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="12"/>
+      <c r="J87" s="11"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
@@ -3290,8 +3388,9 @@
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="12"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -3301,7 +3400,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="12"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
@@ -3318,8 +3417,9 @@
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="12"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3329,7 +3429,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="12"/>
+      <c r="J89" s="11"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
@@ -3346,8 +3446,9 @@
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="12"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -3357,7 +3458,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="12"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
@@ -3374,8 +3475,9 @@
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="12"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -3385,7 +3487,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
-      <c r="J91" s="12"/>
+      <c r="J91" s="11"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
@@ -3402,8 +3504,9 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="12"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3413,7 +3516,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
-      <c r="J92" s="12"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
@@ -3430,8 +3533,9 @@
       <c r="X92" s="12"/>
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="12"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3441,7 +3545,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
-      <c r="J93" s="12"/>
+      <c r="J93" s="11"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
@@ -3458,8 +3562,9 @@
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="12"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -3469,7 +3574,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
-      <c r="J94" s="12"/>
+      <c r="J94" s="11"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -3486,8 +3591,9 @@
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
       <c r="Z94" s="12"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="12"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -3497,7 +3603,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
-      <c r="J95" s="12"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
@@ -3514,8 +3620,9 @@
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
       <c r="Z95" s="12"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="12"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3525,7 +3632,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
-      <c r="J96" s="12"/>
+      <c r="J96" s="11"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
@@ -3542,8 +3649,9 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="12"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -3553,7 +3661,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
-      <c r="J97" s="12"/>
+      <c r="J97" s="11"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
@@ -3570,8 +3678,9 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="12"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3581,7 +3690,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
-      <c r="J98" s="12"/>
+      <c r="J98" s="11"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
@@ -3598,8 +3707,9 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="12"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3609,7 +3719,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
-      <c r="J99" s="12"/>
+      <c r="J99" s="11"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
@@ -3626,8 +3736,9 @@
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
       <c r="Z99" s="12"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="12"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3637,7 +3748,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
-      <c r="J100" s="12"/>
+      <c r="J100" s="11"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
@@ -3654,8 +3765,9 @@
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
       <c r="Z100" s="12"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="12"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3665,7 +3777,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
-      <c r="J101" s="12"/>
+      <c r="J101" s="11"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
@@ -3682,8 +3794,9 @@
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="12"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3693,7 +3806,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
-      <c r="J102" s="12"/>
+      <c r="J102" s="11"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -3710,8 +3823,9 @@
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
       <c r="Z102" s="12"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA102" s="12"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3721,7 +3835,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
-      <c r="J103" s="12"/>
+      <c r="J103" s="11"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
@@ -3738,8 +3852,9 @@
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
       <c r="Z103" s="12"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA103" s="12"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3749,7 +3864,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
-      <c r="J104" s="12"/>
+      <c r="J104" s="11"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
@@ -3766,8 +3881,9 @@
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
       <c r="Z104" s="12"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA104" s="12"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3777,7 +3893,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
-      <c r="J105" s="12"/>
+      <c r="J105" s="11"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
@@ -3794,8 +3910,9 @@
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
       <c r="Z105" s="12"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA105" s="12"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3805,7 +3922,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
-      <c r="J106" s="12"/>
+      <c r="J106" s="11"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
@@ -3822,8 +3939,9 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
       <c r="Z106" s="12"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA106" s="12"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3833,7 +3951,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
-      <c r="J107" s="12"/>
+      <c r="J107" s="11"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
@@ -3850,8 +3968,9 @@
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA107" s="12"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3861,7 +3980,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
-      <c r="J108" s="12"/>
+      <c r="J108" s="11"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
@@ -3878,8 +3997,9 @@
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA108" s="12"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3889,7 +4009,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
-      <c r="J109" s="12"/>
+      <c r="J109" s="11"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
@@ -3906,8 +4026,9 @@
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA109" s="12"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3917,7 +4038,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
-      <c r="J110" s="12"/>
+      <c r="J110" s="11"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
@@ -3934,8 +4055,9 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA110" s="12"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3945,7 +4067,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
-      <c r="J111" s="12"/>
+      <c r="J111" s="11"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
@@ -3962,8 +4084,9 @@
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA111" s="12"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3973,7 +4096,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
-      <c r="J112" s="12"/>
+      <c r="J112" s="11"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
@@ -3990,8 +4113,9 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA112" s="12"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -4001,7 +4125,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
-      <c r="J113" s="12"/>
+      <c r="J113" s="11"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
@@ -4018,8 +4142,9 @@
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
       <c r="Z113" s="12"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA113" s="12"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -4029,7 +4154,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
-      <c r="J114" s="12"/>
+      <c r="J114" s="11"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
@@ -4046,8 +4171,9 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA114" s="12"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -4057,7 +4183,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
-      <c r="J115" s="12"/>
+      <c r="J115" s="11"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
@@ -4074,8 +4200,9 @@
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA115" s="12"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -4085,7 +4212,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
       <c r="I116" s="11"/>
-      <c r="J116" s="12"/>
+      <c r="J116" s="11"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
@@ -4102,8 +4229,9 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA116" s="12"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -4113,7 +4241,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
-      <c r="J117" s="12"/>
+      <c r="J117" s="11"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
@@ -4130,8 +4258,9 @@
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
       <c r="Z117" s="12"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA117" s="12"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -4141,7 +4270,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
-      <c r="J118" s="12"/>
+      <c r="J118" s="11"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
@@ -4158,8 +4287,9 @@
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
       <c r="Z118" s="12"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA118" s="12"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -4169,7 +4299,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
-      <c r="J119" s="12"/>
+      <c r="J119" s="11"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
@@ -4186,8 +4316,9 @@
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
       <c r="Z119" s="12"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA119" s="12"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -4197,7 +4328,7 @@
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
-      <c r="J120" s="12"/>
+      <c r="J120" s="11"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
@@ -4214,8 +4345,9 @@
       <c r="X120" s="12"/>
       <c r="Y120" s="12"/>
       <c r="Z120" s="12"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA120" s="12"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -4225,7 +4357,7 @@
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
-      <c r="J121" s="12"/>
+      <c r="J121" s="11"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
@@ -4242,8 +4374,9 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA121" s="12"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -4253,7 +4386,7 @@
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
-      <c r="J122" s="12"/>
+      <c r="J122" s="11"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
@@ -4270,8 +4403,9 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
       <c r="Z122" s="12"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA122" s="12"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -4281,7 +4415,7 @@
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
-      <c r="J123" s="12"/>
+      <c r="J123" s="11"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
@@ -4298,8 +4432,9 @@
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
       <c r="Z123" s="12"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA123" s="12"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -4309,7 +4444,7 @@
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="11"/>
-      <c r="J124" s="12"/>
+      <c r="J124" s="11"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
@@ -4326,8 +4461,9 @@
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
       <c r="Z124" s="12"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA124" s="12"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -4337,7 +4473,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="11"/>
-      <c r="J125" s="12"/>
+      <c r="J125" s="11"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
@@ -4354,8 +4490,9 @@
       <c r="X125" s="12"/>
       <c r="Y125" s="12"/>
       <c r="Z125" s="12"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA125" s="12"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -4365,7 +4502,7 @@
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="11"/>
-      <c r="J126" s="12"/>
+      <c r="J126" s="11"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
@@ -4382,8 +4519,9 @@
       <c r="X126" s="12"/>
       <c r="Y126" s="12"/>
       <c r="Z126" s="12"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA126" s="12"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -4393,7 +4531,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="11"/>
-      <c r="J127" s="12"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
@@ -4410,8 +4548,9 @@
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
       <c r="Z127" s="12"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA127" s="12"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -4421,7 +4560,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
-      <c r="J128" s="12"/>
+      <c r="J128" s="11"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
@@ -4438,8 +4577,9 @@
       <c r="X128" s="12"/>
       <c r="Y128" s="12"/>
       <c r="Z128" s="12"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA128" s="12"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -4449,7 +4589,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
-      <c r="J129" s="12"/>
+      <c r="J129" s="11"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
@@ -4466,8 +4606,9 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA129" s="12"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -4477,7 +4618,7 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
-      <c r="J130" s="12"/>
+      <c r="J130" s="11"/>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
@@ -4494,8 +4635,9 @@
       <c r="X130" s="12"/>
       <c r="Y130" s="12"/>
       <c r="Z130" s="12"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA130" s="12"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -4505,7 +4647,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
-      <c r="J131" s="12"/>
+      <c r="J131" s="11"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
@@ -4522,8 +4664,9 @@
       <c r="X131" s="12"/>
       <c r="Y131" s="12"/>
       <c r="Z131" s="12"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA131" s="12"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -4533,7 +4676,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
-      <c r="J132" s="12"/>
+      <c r="J132" s="11"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
@@ -4550,8 +4693,9 @@
       <c r="X132" s="12"/>
       <c r="Y132" s="12"/>
       <c r="Z132" s="12"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA132" s="12"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -4561,7 +4705,7 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
-      <c r="J133" s="12"/>
+      <c r="J133" s="11"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
@@ -4578,8 +4722,9 @@
       <c r="X133" s="12"/>
       <c r="Y133" s="12"/>
       <c r="Z133" s="12"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA133" s="12"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -4589,7 +4734,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
-      <c r="J134" s="12"/>
+      <c r="J134" s="11"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
@@ -4606,8 +4751,9 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="12"/>
       <c r="Z134" s="12"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA134" s="12"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -4617,7 +4763,7 @@
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
-      <c r="J135" s="12"/>
+      <c r="J135" s="11"/>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
@@ -4634,8 +4780,9 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
       <c r="Z135" s="12"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA135" s="12"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -4645,7 +4792,7 @@
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="11"/>
-      <c r="J136" s="12"/>
+      <c r="J136" s="11"/>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
@@ -4662,8 +4809,9 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
       <c r="Z136" s="12"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA136" s="12"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -4673,7 +4821,7 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
-      <c r="J137" s="12"/>
+      <c r="J137" s="11"/>
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
@@ -4690,8 +4838,9 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
       <c r="Z137" s="12"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA137" s="12"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -4701,7 +4850,7 @@
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
-      <c r="J138" s="12"/>
+      <c r="J138" s="11"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
@@ -4718,8 +4867,9 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
       <c r="Z138" s="12"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA138" s="12"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -4729,7 +4879,7 @@
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
-      <c r="J139" s="12"/>
+      <c r="J139" s="11"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
@@ -4746,8 +4896,9 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
       <c r="Z139" s="12"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA139" s="12"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -4757,7 +4908,7 @@
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="11"/>
-      <c r="J140" s="12"/>
+      <c r="J140" s="11"/>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
@@ -4774,8 +4925,9 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="12"/>
       <c r="Z140" s="12"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA140" s="12"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -4785,7 +4937,7 @@
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
-      <c r="J141" s="12"/>
+      <c r="J141" s="11"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
@@ -4802,8 +4954,9 @@
       <c r="X141" s="12"/>
       <c r="Y141" s="12"/>
       <c r="Z141" s="12"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA141" s="12"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -4813,7 +4966,7 @@
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="11"/>
-      <c r="J142" s="12"/>
+      <c r="J142" s="11"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
@@ -4830,8 +4983,9 @@
       <c r="X142" s="12"/>
       <c r="Y142" s="12"/>
       <c r="Z142" s="12"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA142" s="12"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -4841,7 +4995,7 @@
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
-      <c r="J143" s="12"/>
+      <c r="J143" s="11"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
@@ -4858,8 +5012,9 @@
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
       <c r="Z143" s="12"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA143" s="12"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -4869,7 +5024,7 @@
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
-      <c r="J144" s="12"/>
+      <c r="J144" s="11"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
@@ -4886,8 +5041,9 @@
       <c r="X144" s="12"/>
       <c r="Y144" s="12"/>
       <c r="Z144" s="12"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA144" s="12"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -4897,7 +5053,7 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
-      <c r="J145" s="12"/>
+      <c r="J145" s="11"/>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
@@ -4914,8 +5070,9 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
       <c r="Z145" s="12"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA145" s="12"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -4925,7 +5082,7 @@
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
-      <c r="J146" s="12"/>
+      <c r="J146" s="11"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
@@ -4942,8 +5099,9 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
       <c r="Z146" s="12"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA146" s="12"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -4953,7 +5111,7 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
-      <c r="J147" s="12"/>
+      <c r="J147" s="11"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
@@ -4970,8 +5128,9 @@
       <c r="X147" s="12"/>
       <c r="Y147" s="12"/>
       <c r="Z147" s="12"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA147" s="12"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -4981,7 +5140,7 @@
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
-      <c r="J148" s="12"/>
+      <c r="J148" s="11"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
@@ -4998,8 +5157,9 @@
       <c r="X148" s="12"/>
       <c r="Y148" s="12"/>
       <c r="Z148" s="12"/>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA148" s="12"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5009,7 +5169,7 @@
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
-      <c r="J149" s="12"/>
+      <c r="J149" s="11"/>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
@@ -5026,8 +5186,9 @@
       <c r="X149" s="12"/>
       <c r="Y149" s="12"/>
       <c r="Z149" s="12"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA149" s="12"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5037,7 +5198,7 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
-      <c r="J150" s="12"/>
+      <c r="J150" s="11"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
@@ -5054,8 +5215,9 @@
       <c r="X150" s="12"/>
       <c r="Y150" s="12"/>
       <c r="Z150" s="12"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA150" s="12"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -5065,7 +5227,7 @@
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
-      <c r="J151" s="12"/>
+      <c r="J151" s="11"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
@@ -5082,8 +5244,9 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
       <c r="Z151" s="12"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA151" s="12"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -5093,7 +5256,7 @@
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
-      <c r="J152" s="12"/>
+      <c r="J152" s="11"/>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
@@ -5110,8 +5273,9 @@
       <c r="X152" s="12"/>
       <c r="Y152" s="12"/>
       <c r="Z152" s="12"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA152" s="12"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -5121,7 +5285,7 @@
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
-      <c r="J153" s="12"/>
+      <c r="J153" s="11"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
@@ -5138,8 +5302,9 @@
       <c r="X153" s="12"/>
       <c r="Y153" s="12"/>
       <c r="Z153" s="12"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA153" s="12"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -5149,7 +5314,7 @@
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
-      <c r="J154" s="12"/>
+      <c r="J154" s="11"/>
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
@@ -5166,8 +5331,9 @@
       <c r="X154" s="12"/>
       <c r="Y154" s="12"/>
       <c r="Z154" s="12"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA154" s="12"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -5177,7 +5343,7 @@
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
-      <c r="J155" s="12"/>
+      <c r="J155" s="11"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
@@ -5194,8 +5360,9 @@
       <c r="X155" s="12"/>
       <c r="Y155" s="12"/>
       <c r="Z155" s="12"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA155" s="12"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -5205,7 +5372,7 @@
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
-      <c r="J156" s="12"/>
+      <c r="J156" s="11"/>
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
@@ -5222,8 +5389,9 @@
       <c r="X156" s="12"/>
       <c r="Y156" s="12"/>
       <c r="Z156" s="12"/>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA156" s="12"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -5233,7 +5401,7 @@
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
-      <c r="J157" s="12"/>
+      <c r="J157" s="11"/>
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
@@ -5250,8 +5418,9 @@
       <c r="X157" s="12"/>
       <c r="Y157" s="12"/>
       <c r="Z157" s="12"/>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA157" s="12"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -5261,7 +5430,7 @@
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
-      <c r="J158" s="12"/>
+      <c r="J158" s="11"/>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
@@ -5278,8 +5447,9 @@
       <c r="X158" s="12"/>
       <c r="Y158" s="12"/>
       <c r="Z158" s="12"/>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA158" s="12"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -5289,7 +5459,7 @@
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
-      <c r="J159" s="12"/>
+      <c r="J159" s="11"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
@@ -5306,8 +5476,9 @@
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
       <c r="Z159" s="12"/>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA159" s="12"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -5317,7 +5488,7 @@
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
-      <c r="J160" s="12"/>
+      <c r="J160" s="11"/>
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
@@ -5334,8 +5505,9 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
       <c r="Z160" s="12"/>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA160" s="12"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -5345,7 +5517,7 @@
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
-      <c r="J161" s="12"/>
+      <c r="J161" s="11"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
@@ -5362,8 +5534,9 @@
       <c r="X161" s="12"/>
       <c r="Y161" s="12"/>
       <c r="Z161" s="12"/>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA161" s="12"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -5373,7 +5546,7 @@
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
-      <c r="J162" s="12"/>
+      <c r="J162" s="11"/>
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
@@ -5390,8 +5563,9 @@
       <c r="X162" s="12"/>
       <c r="Y162" s="12"/>
       <c r="Z162" s="12"/>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA162" s="12"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -5401,7 +5575,7 @@
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
-      <c r="J163" s="12"/>
+      <c r="J163" s="11"/>
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
@@ -5418,8 +5592,9 @@
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
       <c r="Z163" s="12"/>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA163" s="12"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -5429,7 +5604,7 @@
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
-      <c r="J164" s="12"/>
+      <c r="J164" s="11"/>
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
@@ -5446,8 +5621,9 @@
       <c r="X164" s="12"/>
       <c r="Y164" s="12"/>
       <c r="Z164" s="12"/>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA164" s="12"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -5457,7 +5633,7 @@
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
-      <c r="J165" s="12"/>
+      <c r="J165" s="11"/>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
@@ -5474,8 +5650,9 @@
       <c r="X165" s="12"/>
       <c r="Y165" s="12"/>
       <c r="Z165" s="12"/>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA165" s="12"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -5485,7 +5662,7 @@
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
       <c r="I166" s="11"/>
-      <c r="J166" s="12"/>
+      <c r="J166" s="11"/>
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
@@ -5502,8 +5679,9 @@
       <c r="X166" s="12"/>
       <c r="Y166" s="12"/>
       <c r="Z166" s="12"/>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA166" s="12"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -5513,7 +5691,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
       <c r="I167" s="11"/>
-      <c r="J167" s="12"/>
+      <c r="J167" s="11"/>
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
@@ -5530,8 +5708,9 @@
       <c r="X167" s="12"/>
       <c r="Y167" s="12"/>
       <c r="Z167" s="12"/>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA167" s="12"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -5541,7 +5720,7 @@
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
-      <c r="J168" s="12"/>
+      <c r="J168" s="11"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
@@ -5558,8 +5737,9 @@
       <c r="X168" s="12"/>
       <c r="Y168" s="12"/>
       <c r="Z168" s="12"/>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA168" s="12"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -5569,7 +5749,7 @@
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
       <c r="I169" s="11"/>
-      <c r="J169" s="12"/>
+      <c r="J169" s="11"/>
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
@@ -5586,8 +5766,9 @@
       <c r="X169" s="12"/>
       <c r="Y169" s="12"/>
       <c r="Z169" s="12"/>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA169" s="12"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -5597,7 +5778,7 @@
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
-      <c r="J170" s="12"/>
+      <c r="J170" s="11"/>
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
@@ -5614,8 +5795,9 @@
       <c r="X170" s="12"/>
       <c r="Y170" s="12"/>
       <c r="Z170" s="12"/>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA170" s="12"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -5625,7 +5807,7 @@
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
-      <c r="J171" s="12"/>
+      <c r="J171" s="11"/>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
@@ -5642,8 +5824,9 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
       <c r="Z171" s="12"/>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA171" s="12"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -5653,7 +5836,7 @@
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
-      <c r="J172" s="12"/>
+      <c r="J172" s="11"/>
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="12"/>
@@ -5670,8 +5853,9 @@
       <c r="X172" s="12"/>
       <c r="Y172" s="12"/>
       <c r="Z172" s="12"/>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA172" s="12"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -5681,7 +5865,7 @@
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
-      <c r="J173" s="12"/>
+      <c r="J173" s="11"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
@@ -5698,8 +5882,9 @@
       <c r="X173" s="12"/>
       <c r="Y173" s="12"/>
       <c r="Z173" s="12"/>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA173" s="12"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -5709,7 +5894,7 @@
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
-      <c r="J174" s="12"/>
+      <c r="J174" s="11"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
@@ -5726,8 +5911,9 @@
       <c r="X174" s="12"/>
       <c r="Y174" s="12"/>
       <c r="Z174" s="12"/>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA174" s="12"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -5737,7 +5923,7 @@
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
-      <c r="J175" s="12"/>
+      <c r="J175" s="11"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
@@ -5754,8 +5940,9 @@
       <c r="X175" s="12"/>
       <c r="Y175" s="12"/>
       <c r="Z175" s="12"/>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA175" s="12"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -5765,7 +5952,7 @@
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
-      <c r="J176" s="12"/>
+      <c r="J176" s="11"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
@@ -5782,8 +5969,9 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
       <c r="Z176" s="12"/>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA176" s="12"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -5793,7 +5981,7 @@
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
-      <c r="J177" s="12"/>
+      <c r="J177" s="11"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
@@ -5810,8 +5998,9 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
       <c r="Z177" s="12"/>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA177" s="12"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -5821,7 +6010,7 @@
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
-      <c r="J178" s="12"/>
+      <c r="J178" s="11"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
@@ -5838,8 +6027,9 @@
       <c r="X178" s="12"/>
       <c r="Y178" s="12"/>
       <c r="Z178" s="12"/>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA178" s="12"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -5849,7 +6039,7 @@
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
-      <c r="J179" s="12"/>
+      <c r="J179" s="11"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
@@ -5866,8 +6056,9 @@
       <c r="X179" s="12"/>
       <c r="Y179" s="12"/>
       <c r="Z179" s="12"/>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA179" s="12"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -5877,7 +6068,7 @@
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
-      <c r="J180" s="12"/>
+      <c r="J180" s="11"/>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
       <c r="M180" s="12"/>
@@ -5894,8 +6085,9 @@
       <c r="X180" s="12"/>
       <c r="Y180" s="12"/>
       <c r="Z180" s="12"/>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA180" s="12"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -5905,7 +6097,7 @@
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
       <c r="I181" s="11"/>
-      <c r="J181" s="12"/>
+      <c r="J181" s="11"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
@@ -5922,8 +6114,9 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
       <c r="Z181" s="12"/>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA181" s="12"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -5933,7 +6126,7 @@
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
-      <c r="J182" s="12"/>
+      <c r="J182" s="11"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
@@ -5950,8 +6143,9 @@
       <c r="X182" s="12"/>
       <c r="Y182" s="12"/>
       <c r="Z182" s="12"/>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA182" s="12"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -5961,7 +6155,7 @@
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
-      <c r="J183" s="12"/>
+      <c r="J183" s="11"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="12"/>
@@ -5978,8 +6172,9 @@
       <c r="X183" s="12"/>
       <c r="Y183" s="12"/>
       <c r="Z183" s="12"/>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA183" s="12"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -5989,7 +6184,7 @@
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
       <c r="I184" s="11"/>
-      <c r="J184" s="12"/>
+      <c r="J184" s="11"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
       <c r="M184" s="12"/>
@@ -6006,8 +6201,9 @@
       <c r="X184" s="12"/>
       <c r="Y184" s="12"/>
       <c r="Z184" s="12"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA184" s="12"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -6017,7 +6213,7 @@
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
-      <c r="J185" s="12"/>
+      <c r="J185" s="11"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
@@ -6034,8 +6230,9 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
       <c r="Z185" s="12"/>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA185" s="12"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -6045,7 +6242,7 @@
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
-      <c r="J186" s="12"/>
+      <c r="J186" s="11"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
@@ -6062,8 +6259,9 @@
       <c r="X186" s="12"/>
       <c r="Y186" s="12"/>
       <c r="Z186" s="12"/>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA186" s="12"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -6073,7 +6271,7 @@
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
-      <c r="J187" s="12"/>
+      <c r="J187" s="11"/>
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
       <c r="M187" s="12"/>
@@ -6090,8 +6288,9 @@
       <c r="X187" s="12"/>
       <c r="Y187" s="12"/>
       <c r="Z187" s="12"/>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA187" s="12"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -6101,7 +6300,7 @@
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
-      <c r="J188" s="12"/>
+      <c r="J188" s="11"/>
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
@@ -6118,8 +6317,9 @@
       <c r="X188" s="12"/>
       <c r="Y188" s="12"/>
       <c r="Z188" s="12"/>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA188" s="12"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -6129,7 +6329,7 @@
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
-      <c r="J189" s="12"/>
+      <c r="J189" s="11"/>
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
       <c r="M189" s="12"/>
@@ -6146,8 +6346,9 @@
       <c r="X189" s="12"/>
       <c r="Y189" s="12"/>
       <c r="Z189" s="12"/>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA189" s="12"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -6157,7 +6358,7 @@
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
-      <c r="J190" s="12"/>
+      <c r="J190" s="11"/>
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
       <c r="M190" s="12"/>
@@ -6174,8 +6375,9 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
       <c r="Z190" s="12"/>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA190" s="12"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -6185,7 +6387,7 @@
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
-      <c r="J191" s="12"/>
+      <c r="J191" s="11"/>
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
@@ -6202,8 +6404,9 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
       <c r="Z191" s="12"/>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA191" s="12"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -6213,7 +6416,7 @@
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
-      <c r="J192" s="12"/>
+      <c r="J192" s="11"/>
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
@@ -6230,8 +6433,9 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
       <c r="Z192" s="12"/>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA192" s="12"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -6241,7 +6445,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
-      <c r="J193" s="12"/>
+      <c r="J193" s="11"/>
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
@@ -6258,8 +6462,9 @@
       <c r="X193" s="12"/>
       <c r="Y193" s="12"/>
       <c r="Z193" s="12"/>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA193" s="12"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -6269,7 +6474,7 @@
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
-      <c r="J194" s="12"/>
+      <c r="J194" s="11"/>
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
       <c r="M194" s="12"/>
@@ -6286,8 +6491,9 @@
       <c r="X194" s="12"/>
       <c r="Y194" s="12"/>
       <c r="Z194" s="12"/>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA194" s="12"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -6297,7 +6503,7 @@
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
       <c r="I195" s="11"/>
-      <c r="J195" s="12"/>
+      <c r="J195" s="11"/>
       <c r="K195" s="12"/>
       <c r="L195" s="12"/>
       <c r="M195" s="12"/>
@@ -6314,8 +6520,9 @@
       <c r="X195" s="12"/>
       <c r="Y195" s="12"/>
       <c r="Z195" s="12"/>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA195" s="12"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -6325,7 +6532,7 @@
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
-      <c r="J196" s="12"/>
+      <c r="J196" s="11"/>
       <c r="K196" s="12"/>
       <c r="L196" s="12"/>
       <c r="M196" s="12"/>
@@ -6342,8 +6549,9 @@
       <c r="X196" s="12"/>
       <c r="Y196" s="12"/>
       <c r="Z196" s="12"/>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA196" s="12"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -6353,7 +6561,7 @@
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
       <c r="I197" s="11"/>
-      <c r="J197" s="12"/>
+      <c r="J197" s="11"/>
       <c r="K197" s="12"/>
       <c r="L197" s="12"/>
       <c r="M197" s="12"/>
@@ -6370,8 +6578,9 @@
       <c r="X197" s="12"/>
       <c r="Y197" s="12"/>
       <c r="Z197" s="12"/>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA197" s="12"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -6381,7 +6590,7 @@
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
-      <c r="J198" s="12"/>
+      <c r="J198" s="11"/>
       <c r="K198" s="12"/>
       <c r="L198" s="12"/>
       <c r="M198" s="12"/>
@@ -6398,8 +6607,9 @@
       <c r="X198" s="12"/>
       <c r="Y198" s="12"/>
       <c r="Z198" s="12"/>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA198" s="12"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -6409,7 +6619,7 @@
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
-      <c r="J199" s="12"/>
+      <c r="J199" s="11"/>
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
@@ -6426,8 +6636,9 @@
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
       <c r="Z199" s="12"/>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA199" s="12"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -6437,7 +6648,7 @@
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
-      <c r="J200" s="12"/>
+      <c r="J200" s="11"/>
       <c r="K200" s="12"/>
       <c r="L200" s="12"/>
       <c r="M200" s="12"/>
@@ -6454,8 +6665,9 @@
       <c r="X200" s="12"/>
       <c r="Y200" s="12"/>
       <c r="Z200" s="12"/>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA200" s="12"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -6465,7 +6677,7 @@
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
       <c r="I201" s="11"/>
-      <c r="J201" s="12"/>
+      <c r="J201" s="11"/>
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
       <c r="M201" s="12"/>
@@ -6482,8 +6694,9 @@
       <c r="X201" s="12"/>
       <c r="Y201" s="12"/>
       <c r="Z201" s="12"/>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA201" s="12"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -6493,7 +6706,7 @@
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
       <c r="I202" s="11"/>
-      <c r="J202" s="12"/>
+      <c r="J202" s="11"/>
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
@@ -6510,8 +6723,9 @@
       <c r="X202" s="12"/>
       <c r="Y202" s="12"/>
       <c r="Z202" s="12"/>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA202" s="12"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -6521,7 +6735,7 @@
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
       <c r="I203" s="11"/>
-      <c r="J203" s="12"/>
+      <c r="J203" s="11"/>
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
       <c r="M203" s="12"/>
@@ -6538,8 +6752,9 @@
       <c r="X203" s="12"/>
       <c r="Y203" s="12"/>
       <c r="Z203" s="12"/>
-    </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA203" s="12"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -6549,7 +6764,7 @@
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
       <c r="I204" s="11"/>
-      <c r="J204" s="12"/>
+      <c r="J204" s="11"/>
       <c r="K204" s="12"/>
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
@@ -6566,8 +6781,9 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
       <c r="Z204" s="12"/>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA204" s="12"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -6577,7 +6793,7 @@
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
       <c r="I205" s="11"/>
-      <c r="J205" s="12"/>
+      <c r="J205" s="11"/>
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
       <c r="M205" s="12"/>
@@ -6594,8 +6810,9 @@
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
       <c r="Z205" s="12"/>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA205" s="12"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -6605,7 +6822,7 @@
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
       <c r="I206" s="11"/>
-      <c r="J206" s="12"/>
+      <c r="J206" s="11"/>
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
       <c r="M206" s="12"/>
@@ -6622,8 +6839,9 @@
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
       <c r="Z206" s="12"/>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA206" s="12"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -6633,7 +6851,7 @@
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
       <c r="I207" s="11"/>
-      <c r="J207" s="12"/>
+      <c r="J207" s="11"/>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
@@ -6650,8 +6868,9 @@
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
       <c r="Z207" s="12"/>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA207" s="12"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -6661,7 +6880,7 @@
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
       <c r="I208" s="11"/>
-      <c r="J208" s="12"/>
+      <c r="J208" s="11"/>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
       <c r="M208" s="12"/>
@@ -6678,8 +6897,9 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
       <c r="Z208" s="12"/>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA208" s="12"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -6689,7 +6909,7 @@
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
       <c r="I209" s="11"/>
-      <c r="J209" s="12"/>
+      <c r="J209" s="11"/>
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
@@ -6706,8 +6926,9 @@
       <c r="X209" s="12"/>
       <c r="Y209" s="12"/>
       <c r="Z209" s="12"/>
-    </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA209" s="12"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -6717,7 +6938,7 @@
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
       <c r="I210" s="11"/>
-      <c r="J210" s="12"/>
+      <c r="J210" s="11"/>
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
       <c r="M210" s="12"/>
@@ -6734,8 +6955,9 @@
       <c r="X210" s="12"/>
       <c r="Y210" s="12"/>
       <c r="Z210" s="12"/>
-    </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA210" s="12"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -6745,7 +6967,7 @@
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
       <c r="I211" s="11"/>
-      <c r="J211" s="12"/>
+      <c r="J211" s="11"/>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
       <c r="M211" s="12"/>
@@ -6762,8 +6984,9 @@
       <c r="X211" s="12"/>
       <c r="Y211" s="12"/>
       <c r="Z211" s="12"/>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA211" s="12"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -6773,7 +6996,7 @@
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
       <c r="I212" s="11"/>
-      <c r="J212" s="12"/>
+      <c r="J212" s="11"/>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
       <c r="M212" s="12"/>
@@ -6790,8 +7013,9 @@
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
       <c r="Z212" s="12"/>
-    </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA212" s="12"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -6801,7 +7025,7 @@
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
       <c r="I213" s="11"/>
-      <c r="J213" s="12"/>
+      <c r="J213" s="11"/>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
       <c r="M213" s="12"/>
@@ -6818,8 +7042,9 @@
       <c r="X213" s="12"/>
       <c r="Y213" s="12"/>
       <c r="Z213" s="12"/>
-    </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA213" s="12"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -6829,7 +7054,7 @@
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
       <c r="I214" s="11"/>
-      <c r="J214" s="12"/>
+      <c r="J214" s="11"/>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
       <c r="M214" s="12"/>
@@ -6846,8 +7071,9 @@
       <c r="X214" s="12"/>
       <c r="Y214" s="12"/>
       <c r="Z214" s="12"/>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA214" s="12"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -6857,7 +7083,7 @@
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
       <c r="I215" s="11"/>
-      <c r="J215" s="12"/>
+      <c r="J215" s="11"/>
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
       <c r="M215" s="12"/>
@@ -6874,8 +7100,9 @@
       <c r="X215" s="12"/>
       <c r="Y215" s="12"/>
       <c r="Z215" s="12"/>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA215" s="12"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -6885,7 +7112,7 @@
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
-      <c r="J216" s="12"/>
+      <c r="J216" s="11"/>
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
       <c r="M216" s="12"/>
@@ -6902,8 +7129,9 @@
       <c r="X216" s="12"/>
       <c r="Y216" s="12"/>
       <c r="Z216" s="12"/>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA216" s="12"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -6913,7 +7141,7 @@
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
       <c r="I217" s="11"/>
-      <c r="J217" s="12"/>
+      <c r="J217" s="11"/>
       <c r="K217" s="12"/>
       <c r="L217" s="12"/>
       <c r="M217" s="12"/>
@@ -6930,8 +7158,9 @@
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
       <c r="Z217" s="12"/>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA217" s="12"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -6941,7 +7170,7 @@
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
       <c r="I218" s="11"/>
-      <c r="J218" s="12"/>
+      <c r="J218" s="11"/>
       <c r="K218" s="12"/>
       <c r="L218" s="12"/>
       <c r="M218" s="12"/>
@@ -6958,8 +7187,9 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
       <c r="Z218" s="12"/>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA218" s="12"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -6969,7 +7199,7 @@
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
       <c r="I219" s="11"/>
-      <c r="J219" s="12"/>
+      <c r="J219" s="11"/>
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
       <c r="M219" s="12"/>
@@ -6986,8 +7216,9 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
       <c r="Z219" s="12"/>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA219" s="12"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -6997,7 +7228,7 @@
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
       <c r="I220" s="11"/>
-      <c r="J220" s="12"/>
+      <c r="J220" s="11"/>
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
       <c r="M220" s="12"/>
@@ -7014,8 +7245,9 @@
       <c r="X220" s="12"/>
       <c r="Y220" s="12"/>
       <c r="Z220" s="12"/>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA220" s="12"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7025,7 +7257,7 @@
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
       <c r="I221" s="11"/>
-      <c r="J221" s="12"/>
+      <c r="J221" s="11"/>
       <c r="K221" s="12"/>
       <c r="L221" s="12"/>
       <c r="M221" s="12"/>
@@ -7042,8 +7274,9 @@
       <c r="X221" s="12"/>
       <c r="Y221" s="12"/>
       <c r="Z221" s="12"/>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA221" s="12"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7053,7 +7286,7 @@
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
       <c r="I222" s="11"/>
-      <c r="J222" s="12"/>
+      <c r="J222" s="11"/>
       <c r="K222" s="12"/>
       <c r="L222" s="12"/>
       <c r="M222" s="12"/>
@@ -7070,8 +7303,9 @@
       <c r="X222" s="12"/>
       <c r="Y222" s="12"/>
       <c r="Z222" s="12"/>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA222" s="12"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7081,7 +7315,7 @@
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
       <c r="I223" s="11"/>
-      <c r="J223" s="12"/>
+      <c r="J223" s="11"/>
       <c r="K223" s="12"/>
       <c r="L223" s="12"/>
       <c r="M223" s="12"/>
@@ -7098,8 +7332,9 @@
       <c r="X223" s="12"/>
       <c r="Y223" s="12"/>
       <c r="Z223" s="12"/>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA223" s="12"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -7109,7 +7344,7 @@
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
       <c r="I224" s="11"/>
-      <c r="J224" s="12"/>
+      <c r="J224" s="11"/>
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
@@ -7126,8 +7361,9 @@
       <c r="X224" s="12"/>
       <c r="Y224" s="12"/>
       <c r="Z224" s="12"/>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA224" s="12"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -7137,7 +7373,7 @@
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
       <c r="I225" s="11"/>
-      <c r="J225" s="12"/>
+      <c r="J225" s="11"/>
       <c r="K225" s="12"/>
       <c r="L225" s="12"/>
       <c r="M225" s="12"/>
@@ -7154,8 +7390,9 @@
       <c r="X225" s="12"/>
       <c r="Y225" s="12"/>
       <c r="Z225" s="12"/>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA225" s="12"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -7165,7 +7402,7 @@
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
       <c r="I226" s="11"/>
-      <c r="J226" s="12"/>
+      <c r="J226" s="11"/>
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
@@ -7182,8 +7419,9 @@
       <c r="X226" s="12"/>
       <c r="Y226" s="12"/>
       <c r="Z226" s="12"/>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA226" s="12"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -7193,7 +7431,7 @@
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
       <c r="I227" s="11"/>
-      <c r="J227" s="12"/>
+      <c r="J227" s="11"/>
       <c r="K227" s="12"/>
       <c r="L227" s="12"/>
       <c r="M227" s="12"/>
@@ -7210,8 +7448,9 @@
       <c r="X227" s="12"/>
       <c r="Y227" s="12"/>
       <c r="Z227" s="12"/>
-    </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA227" s="12"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -7221,7 +7460,7 @@
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
       <c r="I228" s="11"/>
-      <c r="J228" s="12"/>
+      <c r="J228" s="11"/>
       <c r="K228" s="12"/>
       <c r="L228" s="12"/>
       <c r="M228" s="12"/>
@@ -7238,8 +7477,9 @@
       <c r="X228" s="12"/>
       <c r="Y228" s="12"/>
       <c r="Z228" s="12"/>
-    </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA228" s="12"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -7249,7 +7489,7 @@
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
       <c r="I229" s="11"/>
-      <c r="J229" s="12"/>
+      <c r="J229" s="11"/>
       <c r="K229" s="12"/>
       <c r="L229" s="12"/>
       <c r="M229" s="12"/>
@@ -7266,8 +7506,9 @@
       <c r="X229" s="12"/>
       <c r="Y229" s="12"/>
       <c r="Z229" s="12"/>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA229" s="12"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -7277,7 +7518,7 @@
       <c r="G230" s="11"/>
       <c r="H230" s="11"/>
       <c r="I230" s="11"/>
-      <c r="J230" s="12"/>
+      <c r="J230" s="11"/>
       <c r="K230" s="12"/>
       <c r="L230" s="12"/>
       <c r="M230" s="12"/>
@@ -7294,8 +7535,9 @@
       <c r="X230" s="12"/>
       <c r="Y230" s="12"/>
       <c r="Z230" s="12"/>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA230" s="12"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -7305,7 +7547,7 @@
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
       <c r="I231" s="11"/>
-      <c r="J231" s="12"/>
+      <c r="J231" s="11"/>
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
@@ -7322,8 +7564,9 @@
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
       <c r="Z231" s="12"/>
-    </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA231" s="12"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -7333,7 +7576,7 @@
       <c r="G232" s="11"/>
       <c r="H232" s="11"/>
       <c r="I232" s="11"/>
-      <c r="J232" s="12"/>
+      <c r="J232" s="11"/>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
@@ -7350,8 +7593,9 @@
       <c r="X232" s="12"/>
       <c r="Y232" s="12"/>
       <c r="Z232" s="12"/>
-    </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA232" s="12"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -7361,7 +7605,7 @@
       <c r="G233" s="11"/>
       <c r="H233" s="11"/>
       <c r="I233" s="11"/>
-      <c r="J233" s="12"/>
+      <c r="J233" s="11"/>
       <c r="K233" s="12"/>
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
@@ -7378,8 +7622,9 @@
       <c r="X233" s="12"/>
       <c r="Y233" s="12"/>
       <c r="Z233" s="12"/>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA233" s="12"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -7389,7 +7634,7 @@
       <c r="G234" s="11"/>
       <c r="H234" s="11"/>
       <c r="I234" s="11"/>
-      <c r="J234" s="12"/>
+      <c r="J234" s="11"/>
       <c r="K234" s="12"/>
       <c r="L234" s="12"/>
       <c r="M234" s="12"/>
@@ -7406,8 +7651,9 @@
       <c r="X234" s="12"/>
       <c r="Y234" s="12"/>
       <c r="Z234" s="12"/>
-    </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA234" s="12"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -7417,7 +7663,7 @@
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
       <c r="I235" s="11"/>
-      <c r="J235" s="12"/>
+      <c r="J235" s="11"/>
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
       <c r="M235" s="12"/>
@@ -7434,8 +7680,9 @@
       <c r="X235" s="12"/>
       <c r="Y235" s="12"/>
       <c r="Z235" s="12"/>
-    </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA235" s="12"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -7445,7 +7692,7 @@
       <c r="G236" s="11"/>
       <c r="H236" s="11"/>
       <c r="I236" s="11"/>
-      <c r="J236" s="12"/>
+      <c r="J236" s="11"/>
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
@@ -7462,8 +7709,9 @@
       <c r="X236" s="12"/>
       <c r="Y236" s="12"/>
       <c r="Z236" s="12"/>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA236" s="12"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -7473,7 +7721,7 @@
       <c r="G237" s="11"/>
       <c r="H237" s="11"/>
       <c r="I237" s="11"/>
-      <c r="J237" s="12"/>
+      <c r="J237" s="11"/>
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
       <c r="M237" s="12"/>
@@ -7490,8 +7738,9 @@
       <c r="X237" s="12"/>
       <c r="Y237" s="12"/>
       <c r="Z237" s="12"/>
-    </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA237" s="12"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -7501,7 +7750,7 @@
       <c r="G238" s="11"/>
       <c r="H238" s="11"/>
       <c r="I238" s="11"/>
-      <c r="J238" s="12"/>
+      <c r="J238" s="11"/>
       <c r="K238" s="12"/>
       <c r="L238" s="12"/>
       <c r="M238" s="12"/>
@@ -7518,8 +7767,9 @@
       <c r="X238" s="12"/>
       <c r="Y238" s="12"/>
       <c r="Z238" s="12"/>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA238" s="12"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -7529,7 +7779,7 @@
       <c r="G239" s="11"/>
       <c r="H239" s="11"/>
       <c r="I239" s="11"/>
-      <c r="J239" s="12"/>
+      <c r="J239" s="11"/>
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
@@ -7546,8 +7796,9 @@
       <c r="X239" s="12"/>
       <c r="Y239" s="12"/>
       <c r="Z239" s="12"/>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA239" s="12"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -7557,7 +7808,7 @@
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
       <c r="I240" s="11"/>
-      <c r="J240" s="12"/>
+      <c r="J240" s="11"/>
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
@@ -7574,8 +7825,9 @@
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
       <c r="Z240" s="12"/>
-    </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA240" s="12"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -7585,7 +7837,7 @@
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
       <c r="I241" s="11"/>
-      <c r="J241" s="12"/>
+      <c r="J241" s="11"/>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
       <c r="M241" s="12"/>
@@ -7602,8 +7854,9 @@
       <c r="X241" s="12"/>
       <c r="Y241" s="12"/>
       <c r="Z241" s="12"/>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA241" s="12"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -7613,7 +7866,7 @@
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
       <c r="I242" s="11"/>
-      <c r="J242" s="12"/>
+      <c r="J242" s="11"/>
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
       <c r="M242" s="12"/>
@@ -7630,8 +7883,9 @@
       <c r="X242" s="12"/>
       <c r="Y242" s="12"/>
       <c r="Z242" s="12"/>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA242" s="12"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -7641,7 +7895,7 @@
       <c r="G243" s="11"/>
       <c r="H243" s="11"/>
       <c r="I243" s="11"/>
-      <c r="J243" s="12"/>
+      <c r="J243" s="11"/>
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
@@ -7658,8 +7912,9 @@
       <c r="X243" s="12"/>
       <c r="Y243" s="12"/>
       <c r="Z243" s="12"/>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA243" s="12"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -7669,7 +7924,7 @@
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
       <c r="I244" s="11"/>
-      <c r="J244" s="12"/>
+      <c r="J244" s="11"/>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
@@ -7686,8 +7941,9 @@
       <c r="X244" s="12"/>
       <c r="Y244" s="12"/>
       <c r="Z244" s="12"/>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA244" s="12"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -7697,7 +7953,7 @@
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
       <c r="I245" s="11"/>
-      <c r="J245" s="12"/>
+      <c r="J245" s="11"/>
       <c r="K245" s="12"/>
       <c r="L245" s="12"/>
       <c r="M245" s="12"/>
@@ -7714,8 +7970,9 @@
       <c r="X245" s="12"/>
       <c r="Y245" s="12"/>
       <c r="Z245" s="12"/>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA245" s="12"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -7725,7 +7982,7 @@
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
       <c r="I246" s="11"/>
-      <c r="J246" s="12"/>
+      <c r="J246" s="11"/>
       <c r="K246" s="12"/>
       <c r="L246" s="12"/>
       <c r="M246" s="12"/>
@@ -7742,8 +7999,9 @@
       <c r="X246" s="12"/>
       <c r="Y246" s="12"/>
       <c r="Z246" s="12"/>
-    </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA246" s="12"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -7753,7 +8011,7 @@
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
       <c r="I247" s="11"/>
-      <c r="J247" s="12"/>
+      <c r="J247" s="11"/>
       <c r="K247" s="12"/>
       <c r="L247" s="12"/>
       <c r="M247" s="12"/>
@@ -7770,8 +8028,9 @@
       <c r="X247" s="12"/>
       <c r="Y247" s="12"/>
       <c r="Z247" s="12"/>
-    </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA247" s="12"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -7781,7 +8040,7 @@
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
       <c r="I248" s="11"/>
-      <c r="J248" s="12"/>
+      <c r="J248" s="11"/>
       <c r="K248" s="12"/>
       <c r="L248" s="12"/>
       <c r="M248" s="12"/>
@@ -7798,8 +8057,9 @@
       <c r="X248" s="12"/>
       <c r="Y248" s="12"/>
       <c r="Z248" s="12"/>
-    </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA248" s="12"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -7809,7 +8069,7 @@
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="11"/>
-      <c r="J249" s="12"/>
+      <c r="J249" s="11"/>
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
       <c r="M249" s="12"/>
@@ -7826,8 +8086,9 @@
       <c r="X249" s="12"/>
       <c r="Y249" s="12"/>
       <c r="Z249" s="12"/>
-    </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA249" s="12"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -7837,7 +8098,7 @@
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="11"/>
-      <c r="J250" s="12"/>
+      <c r="J250" s="11"/>
       <c r="K250" s="12"/>
       <c r="L250" s="12"/>
       <c r="M250" s="12"/>
@@ -7854,8 +8115,9 @@
       <c r="X250" s="12"/>
       <c r="Y250" s="12"/>
       <c r="Z250" s="12"/>
-    </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA250" s="12"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -7865,7 +8127,7 @@
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="11"/>
-      <c r="J251" s="12"/>
+      <c r="J251" s="11"/>
       <c r="K251" s="12"/>
       <c r="L251" s="12"/>
       <c r="M251" s="12"/>
@@ -7882,8 +8144,9 @@
       <c r="X251" s="12"/>
       <c r="Y251" s="12"/>
       <c r="Z251" s="12"/>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA251" s="12"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -7893,7 +8156,7 @@
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="11"/>
-      <c r="J252" s="12"/>
+      <c r="J252" s="11"/>
       <c r="K252" s="12"/>
       <c r="L252" s="12"/>
       <c r="M252" s="12"/>
@@ -7910,8 +8173,9 @@
       <c r="X252" s="12"/>
       <c r="Y252" s="12"/>
       <c r="Z252" s="12"/>
-    </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA252" s="12"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -7921,7 +8185,7 @@
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="11"/>
-      <c r="J253" s="12"/>
+      <c r="J253" s="11"/>
       <c r="K253" s="12"/>
       <c r="L253" s="12"/>
       <c r="M253" s="12"/>
@@ -7938,8 +8202,9 @@
       <c r="X253" s="12"/>
       <c r="Y253" s="12"/>
       <c r="Z253" s="12"/>
-    </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA253" s="12"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -7949,7 +8214,7 @@
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
       <c r="I254" s="11"/>
-      <c r="J254" s="12"/>
+      <c r="J254" s="11"/>
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
@@ -7966,8 +8231,9 @@
       <c r="X254" s="12"/>
       <c r="Y254" s="12"/>
       <c r="Z254" s="12"/>
-    </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA254" s="12"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -7977,7 +8243,7 @@
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="11"/>
-      <c r="J255" s="12"/>
+      <c r="J255" s="11"/>
       <c r="K255" s="12"/>
       <c r="L255" s="12"/>
       <c r="M255" s="12"/>
@@ -7994,8 +8260,9 @@
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
       <c r="Z255" s="12"/>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA255" s="12"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -8005,7 +8272,7 @@
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="11"/>
-      <c r="J256" s="12"/>
+      <c r="J256" s="11"/>
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
       <c r="M256" s="12"/>
@@ -8022,8 +8289,9 @@
       <c r="X256" s="12"/>
       <c r="Y256" s="12"/>
       <c r="Z256" s="12"/>
-    </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA256" s="12"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -8033,7 +8301,7 @@
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
       <c r="I257" s="11"/>
-      <c r="J257" s="12"/>
+      <c r="J257" s="11"/>
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
       <c r="M257" s="12"/>
@@ -8050,8 +8318,9 @@
       <c r="X257" s="12"/>
       <c r="Y257" s="12"/>
       <c r="Z257" s="12"/>
-    </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA257" s="12"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -8061,7 +8330,7 @@
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
       <c r="I258" s="11"/>
-      <c r="J258" s="12"/>
+      <c r="J258" s="11"/>
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
       <c r="M258" s="12"/>
@@ -8078,8 +8347,9 @@
       <c r="X258" s="12"/>
       <c r="Y258" s="12"/>
       <c r="Z258" s="12"/>
-    </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA258" s="12"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -8089,7 +8359,7 @@
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
       <c r="I259" s="11"/>
-      <c r="J259" s="12"/>
+      <c r="J259" s="11"/>
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
       <c r="M259" s="12"/>
@@ -8106,26 +8376,27 @@
       <c r="X259" s="12"/>
       <c r="Y259" s="12"/>
       <c r="Z259" s="12"/>
+      <c r="AA259" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
